--- a/task_2016/task_201607.xlsx
+++ b/task_2016/task_201607.xlsx
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
